--- a/file/DataPivot_배혜빈.xlsx
+++ b/file/DataPivot_배혜빈.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdus\OneDrive\바탕 화면\Uipath 예제_202003up\3. 데이터 피벗\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\001_ACME\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76174DD4-A1B1-4F6D-BDFA-831C9E0A8568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,26 +545,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.3984375" customWidth="1"/>
-    <col min="3" max="3" width="106.8984375" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="106.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -571,31 +572,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="6" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="7" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -612,21 +613,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.3984375" customWidth="1"/>
-    <col min="3" max="3" width="106.8984375" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="106.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -634,31 +635,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
@@ -671,21 +672,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.3984375" customWidth="1"/>
-    <col min="3" max="3" width="106.8984375" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="106.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -693,31 +694,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
@@ -730,21 +731,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.3984375" customWidth="1"/>
-    <col min="3" max="3" width="106.8984375" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="106.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -752,31 +753,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
@@ -790,24 +791,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.3984375" customWidth="1"/>
-    <col min="3" max="3" width="106.8984375" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="106.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -815,31 +816,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>

--- a/file/DataPivot_배혜빈.xlsx
+++ b/file/DataPivot_배혜빈.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\001_ACME\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdus\OneDrive\바탕 화면\Uipath 예제_202003up\3. 데이터 피벗\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76174DD4-A1B1-4F6D-BDFA-831C9E0A8568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -80,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,26 +544,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" customWidth="1"/>
+    <col min="3" max="3" width="106.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="1" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -572,31 +571,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="6" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="7" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -613,21 +612,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" customWidth="1"/>
+    <col min="3" max="3" width="106.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -635,31 +634,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
@@ -672,21 +671,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" customWidth="1"/>
+    <col min="3" max="3" width="106.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -694,31 +693,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
@@ -731,21 +730,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" customWidth="1"/>
+    <col min="3" max="3" width="106.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -753,31 +752,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
@@ -791,24 +790,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" customWidth="1"/>
+    <col min="3" max="3" width="106.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -816,31 +815,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
